--- a/data/hotels_by_city/Dallas/Dallas_shard_370.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_370.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Gwynn H</t>
   </si>
   <si>
     <t>06/12/2018</t>
@@ -209,6 +212,9 @@
 Of note:...Pros: Reserved online, including a request for a very quiet room and arrived to someone who had actually read that and had a room ready for us on the 4th floor (top) away from the elevator. And it was quiet!Black out shades did their job well.Beds were very comfortable (I like mine a touch on the soft side).Our room keys worked first time every time. Air conditioning was quite sufficient for the hot Texas summer.Looked like a new place - things were clean and fresh.Decent breakfast, with hot items and some variety for the two mornings we were there. Lots of outlets! Regular two-prong and 2 USB for each bed, plus more near the desk.Negatives:Coffee. They had both decaf and house blend. The house blend is a fairly weak brew. If they offered a bold option like some other places do, it would be wonderful.Oddly, room cleaning schedule. On our first morning we left about 9:30 to visit the zoo,  returned at 3:30, and our room had not been cleaned yet (the crew was in the room next to ours, so ours would have been finished about 4:00). At that point in time, it would have been an inconvenience, so we just asked for fresh towels.TV. Decent size and channel selection but it was really slow to respond to the remote and my husband said the sound was "tinny".Of note: The beds are tall. However there was a stool that would have helped, had I needed it because of my knees (my mom would).Someone mentioned a flight pattern from the base.We did hear a plane once about 9:30am. Wasn't a problem.For us, it was very comfortable and convenient and we would definitely stay again.More</t>
   </si>
   <si>
+    <t>PaulHenryOK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r485038079-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
     <t>Our room was dirty, the TV didn't work and the bed was so tall, we had to turn the trash can upside down for me to get into the bed.  The manager came to the room to try to fix the TV so we asked if if we could get a room with a 'lower' bed - his response was that all beds were the same 'new' heighth.  I have since found that lower beds are available.  We were able to move to another room which was clean and the TV worked; however, the bed was the same heighth.  Then, the walls were paper thin - heard noises from rooms on both sides of us all night.  It was the worst hotel night we've ever had!More</t>
   </si>
   <si>
+    <t>mandyjmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r481867387-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -254,6 +263,9 @@
     <t>One of the best hotel visits we've experienced.  Lovely hotel, beautiful decor from the lobby to the rooms, very clean. Extremely friendly, accommodating staff, everyone from the awesome front desk associate to the wonderful maintenance manager.  On our first night's stay, we encountered the black-out blinds to be missing from our room (understandably so, as they explained in that particular room the vertical blinds didn't fit the particular track for the black-out blinds to roll down)... once notified of the situation, the lady at the front desk immediately sent the maintenance manager up to switch rooms for us, the housekeeping crew was instantly there cleaning the new room and making everything right.  We were even given complementary drinks and UHH rewards points for the 'inconvienience'!  We were extremely impressed with the amount or professionalism and curtesy exhibited from this hotel!  We will definitely be staying here again if we are ever back in this area.  Thank you Holiday Inn Express West Fort Worth for making our trip a great one!More</t>
   </si>
   <si>
+    <t>LatteChic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r467429150-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>mercynurse62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r463363273-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>DeepMD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r459705545-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -317,6 +335,9 @@
     <t>Stayed at this property as party of a wedding, received a very reasonable nightly rate through wedding along with free parking and free wifi. The front desk staff and housekeeping provided impeccable service, very helpful and polite.  Room was spotless, extremely clean. My main issue was with the size of the room and mainly the bathroom. The bathroom was EXTREMELY SMALL, only enough standing room for one person. Made getting ready a slower process since only one person could be in there at a time. But the showerhead was wonderful, high pressure water.  The tv was also on the smaller side and positioned diagonally from the bed, so watching tv wasn't ideal. Other than that, hotel was decent and reasonably priced.More</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r458392547-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -344,6 +365,9 @@
     <t>I use to stay at the La Quinta on Calmont until I was informed that pets were welcome in all rooms at the hotel.  I don't want to sleep in a bed where some animal has been sleeping so I started looking for another place.  I was lucky to find this Holiday Inn just a few blocks away.  It is a true gem!  New, clean and the staff members are true professionals. The price for my rooms are comparable to the La Quinta but much cleaner and newer.  I like this place!More</t>
   </si>
   <si>
+    <t>fperales2416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r451536019-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -362,6 +386,9 @@
     <t>My cheerleaders had a great stay, great room very clean, Linda Martin was very helful on getting us room which fit our squad, loved the breakfast, staff was very friendly.. Just LOVE  it and the price was great..More</t>
   </si>
   <si>
+    <t>Stephen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r446166926-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -383,6 +410,9 @@
     <t>We were walk in customers and this hotel were wonderful in the way they helped us. We were met by a young man and lady who gave us great service. Brad was a trainee and was brilliant. We needed to stay four nights and everyone moved people around even though they were heavily booked on that weekend. Dennis, the manager, was extremely helpful and pleasant.  The rooms were very good and spacious. Would recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>Em S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r444252581-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -404,6 +434,9 @@
     <t>This was such a nice, friendly place. I slept so good cuz the beds were so comfy! The rooms are very inviting and have a homey feeling. They have a wonderful hot breakfast such as eggs, bacon, sausage, biscuit &amp; gravy, pancake machine and other cold foods like cereal and yogurt. My husband is allergic to dogs and cats. This place does not allow pets and I am very happy about that. I do not like sleeping in a room with pet urine smell and my husband sneezing all night. Most people with pets are very careless with their pets at someone else's place and I have seen it. So, if I'm gonna pay for a room, I don't want pet urine smell! This place was a very great place to stay. I hope they keep it that way! It is really hard to find a hotel who does not allow pets now days. I'm talking about pets and not a service dog! Big difference!More</t>
   </si>
   <si>
+    <t>Mlaine T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r438091926-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -428,6 +461,9 @@
     <t>This new Holiday Inn has some new concept rooms.  The whole design of the room is convenient and well thought out.  I especially like the area where several suit cases can be placed. I took a picture of the shower I would like to have that in my house.  The staff was very accommodating a special thank you to Chandler St. Clair and Linda.        Thank you, M'laineMore</t>
   </si>
   <si>
+    <t>Apple I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r437882511-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -446,6 +482,9 @@
     <t>Nice Clean rooms . Friendly and helpful stuff. Easy on and off I-30. Breakfast was good and in variety. Entire property is well maintained and cleaned. Perfect place to stay ! Will surely go back when I'm in town. More</t>
   </si>
   <si>
+    <t>Jorge G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r435995624-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
   </si>
   <si>
     <t>Eight months old, really nice place, great showers. Nice bed with large comfy pillows. Nice staff with a great rate. Ask and you can get anywhere from $85 to $99.The desk in the room is super roomy and easy to work out of. LED lighting is nice. The TV does not pivot, so that's a pain.More</t>
+  </si>
+  <si>
+    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r435035256-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -512,6 +554,9 @@
 Due to the loud noise, I will be seeking an alternative hotel for...This hotel is new.  It is in a convenient location off Interstate 30.The surrounding area wasn't very welcoming and there were very few parking spots in front of the building.  You had to mostly park on the side or the back of the building which had terraced parking.There is a liquor store right next door but there were no drunks hanging around.  See photo.  The view across the street is some electrical power station.  See photo.The hotel &amp; room were clean.  I really appreciated the new, modern furnishings.  See photos.This hotel had the best black out curtains I have ever seen!  See photo.  No light at all coming in!!The worst part of this hotel was how LOUD it is.  I had no idea it was very close to the adjacent Naval Air Station until I heard fighter JETS flying over head and making my whole room vibrate with noise!  Yes, there is a Naval Air Station Base right in Ft. Worth, Texas!The jets flew in the evening but not at night.  However, at night - it appeared that cars love to drag race in front of the hotel.  Revving engines all night long.I got very little sleep.Breakfast was good except for their extremely small, toddler sized cups they provide for juice.  One cup holds exactly 3 swallows of juice!Due to the loud noise, I will be seeking an alternative hotel for my next business trip to Ft. Worth.More</t>
   </si>
   <si>
+    <t>lilmizknowit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r429387387-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -533,6 +578,9 @@
     <t>We visited during a weekend getaway with our two kids and enjoyed.  There was some street construction going on , but no fault of the hotel.  Rooms were great, staff was great, and breakfast was great!!More</t>
   </si>
   <si>
+    <t>bigtrippin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r388220765-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -557,6 +605,9 @@
     <t>I would prefer to not leave a poor rating, because the room was mostly well kept, up-to-date, and comfortable, but we got in really late, specifically asked for a late check-out, asked the desk staff to put a note in the system so we weren't woken, and yet still received a call at the normal checkout time.  The woman at the front desk was entirely unapologetic and unprofessional when we informed her of this.So it's hard to be pleased with a stay when the staff ignored our one and only request.I said mostly well kept because despite the shower fixtures being fairly new, a corner was significantly rusted.Otherwise the room was clean and well kept, though my wife did complain about some smell that I felt was due to newer furnishings.More</t>
   </si>
   <si>
+    <t>GAWanderer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r381265386-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -584,6 +635,9 @@
     <t>Holiday Inn Express West is a new hotel which had been open for around 90 days at the time of our stay.  In planning, we decided to try this HIE location for that exact reason.  We were very pleased with our choice.  The new "Formula Blue Design" is well thought out and made it easy for us to have a place for luggage, a spot for each of us to set up our laptop and clean comfortable (new) sofa for watching the 42" TV.  The bed, bedding and linens were new and nice. The window covering was a pull down light blocking shade for nights and a see thru filter shade for days. That was the best new idea ever. We were traveling for vacation and stayed for three nights.  Parking was always available.  Breakfast was standard HIE but the area was clean and well kept.  Coffee was available even after breakfast hours. The front desk folks were professional and friendly.  The only minor problem that we had was that our door key card was only "keyed" for the first day.  When we complained, it was re-keyed to last our entire stay.More</t>
   </si>
   <si>
+    <t>Dimnbac33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r566439026-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -602,6 +656,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>737openroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r562606991-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -620,6 +677,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Kristy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r556897553-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -638,6 +698,9 @@
     <t>I have traveled all across this country and NEVER have I ever been charged after leaving a hotel like this Holiday Inn.  We stayed here with the Charolais Association.  (Travelled 1200 miles to be here. ) So we received a nice discount from their original price apparently they needed to make up for it!    They called and told us they were charging us   50$ to clean the bed  that was a discount usually it is 250$    Apparently I should have taken pictures of the bed .  I didn’t complain about the elevator which needs checked , the sound is terrible.  I didn’t complain about the  slippery bath tub.  I didn’t complain you can hear everything going on in the rooms beside you.  Yes it was clean. Breakfast was okay    For the $$$. It was not that outstanding  I would rather have stayed in the country Inn   Or the quality Inn next door. This will be our last Holiday Inn stay More</t>
   </si>
   <si>
+    <t>jetsly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r549058673-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,6 +720,9 @@
   </si>
   <si>
     <t>Location: convenient to I 30 in both directions, but far enough away to be quiet.  Public and private areas are clean and attractive, and there is an indoor pool, but no hot tub.  The breakfast fare is the usual HI offering.  With the rest of the chain, this facility is serviced by a single elevator bank, which can slow down checking out dramatically if you have much luggage and are on an upper floor.  Make allowance for this if you are racing to the airport.  Also, be careful in the bathroom.  The tub in our suite was slippery in the extreme.  Staff acknowledges the problem, but appears to be waiting for corporate to approve the obvious upgrade.More</t>
+  </si>
+  <si>
+    <t>NQ8286</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r533631470-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -1179,43 +1245,47 @@
       <c r="A2" t="n">
         <v>64672</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155714</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1235,50 +1305,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64672</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155715</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1298,50 +1372,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64672</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155716</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1355,50 +1433,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64672</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1412,50 +1494,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64672</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>120337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1475,50 +1561,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64672</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155718</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1536,56 +1626,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64672</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1603,56 +1697,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64672</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155719</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1668,56 +1766,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64672</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>20801</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1733,56 +1835,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64672</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>84154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1794,56 +1900,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64672</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155720</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1855,56 +1965,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64672</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155721</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1916,56 +2030,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64672</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1983,56 +2101,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64672</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2050,56 +2172,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64672</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155723</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2117,56 +2243,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64672</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155724</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2178,56 +2308,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64672</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155725</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2243,56 +2377,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64672</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155726</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2306,50 +2444,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64672</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155727</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2363,41 +2505,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64672</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>63591</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -2416,50 +2562,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64672</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>155728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2479,50 +2629,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64672</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155729</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2542,7 +2696,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_370.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_370.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>STR#</t>
   </si>
@@ -150,19 +150,292 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Gwynn H</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r603432795-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>9980665</t>
+  </si>
+  <si>
+    <t>603432795</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>great and convenient</t>
+  </si>
+  <si>
+    <t>Great location and very convenient.   Rooms are nice.  We will definitely be booking here again!  The staff is very caring and met all our needs.  I had booked several rooms for our group and all turned out to be wonderful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r591436466-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>591436466</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t>First and foremost, Miss Linda was a great person. She was very welcoming and pleasant. A great person to talk with. Check in was smooth.. FYI there is a 50 dollar incidental fee that gets placed on a card but no worries it will be returned if not used.. Room was super clean upon our arrival , also the inside hotel and outside was too. The bathroom was very nice, we liked it has a half wall between the toilet and sink. They had some nice soaps and shampoos pumps in a caddy in the shower Incase you forgot your( and they were in a tamper resistance caddy). The beds were comfortable coffee maker was clean and ready for use. T.V had a good selection of channels ( however I at 55 I still had a hard time hearing and so did my children). Breakfast was good, I like that the eating area was separate from the food area( they are only separated by a walk through door) Miss Linda greeted as we were eating asking us about our stay and had a little small talk. And I saw her interacting with other guest and her interpersonal skill appear on point! When we come back to the Dallas Fort Worth area it is definitely a place we will stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>First and foremost, Miss Linda was a great person. She was very welcoming and pleasant. A great person to talk with. Check in was smooth.. FYI there is a 50 dollar incidental fee that gets placed on a card but no worries it will be returned if not used.. Room was super clean upon our arrival , also the inside hotel and outside was too. The bathroom was very nice, we liked it has a half wall between the toilet and sink. They had some nice soaps and shampoos pumps in a caddy in the shower Incase you forgot your( and they were in a tamper resistance caddy). The beds were comfortable coffee maker was clean and ready for use. T.V had a good selection of channels ( however I at 55 I still had a hard time hearing and so did my children). Breakfast was good, I like that the eating area was separate from the food area( they are only separated by a walk through door) Miss Linda greeted as we were eating asking us about our stay and had a little small talk. And I saw her interacting with other guest and her interpersonal skill appear on point! When we come back to the Dallas Fort Worth area it is definitely a place we will stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r600572599-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>600572599</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Rooms are great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed 1 night in a suite with my husband children. The rooms are great. Nice, big and clean. Loved the new shampoo, conditioner and bath gel dispensers attached in the shower, no more dropping small bottles or running out of product. Staff was friendly and helpful. This Holiday Inn was close to everything we wanted to see. I travel quite often with work and personal trips and most of the time I’ll stay in at Holiday Inn Express. I haven’t been disappointed yet. Good job! </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r590897912-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>590897912</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Booked but did not stay. Not a safe area</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms for a stay. Son traveling separately and when he arrived he was accosted by 3 individuals, in the parking lot assuming because he was driving a fancy car not usually seen in this area. He relayed to us and I immediately cancelled the rooms and told management why. I did not feel we would be safe. Check out area before staying or book elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Fort Worth West, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Booked 2 rooms for a stay. Son traveling separately and when he arrived he was accosted by 3 individuals, in the parking lot assuming because he was driving a fancy car not usually seen in this area. He relayed to us and I immediately cancelled the rooms and told management why. I did not feel we would be safe. Check out area before staying or book elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r590733550-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>590733550</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>new, large rooms, outstanding service!</t>
+  </si>
+  <si>
+    <t>we booked 15 rooms for a high school football tournament.  Linda Martin could not have been more helpful with a great rate, constant communication, and on-site service once we arrived.  Despite the large size of our group, everything was in order when we arrived (20 varsity football players plus families!)  Front desk check in personnel were all courteous and helpful.  Rooms were large, clean and well laid-out.  Would stay here again anytime!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r566439026-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>566439026</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housekeeping lacking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is modern up to date and clean. Housekeeping didn’t clean room. They did make up beds,did not replenish towels, no soap left and didn’t even clean used grounds from coffee pot. Other than that our vehicle was safe and beds sufficient. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r562606991-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>562606991</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Comfy &amp; convenient!</t>
+  </si>
+  <si>
+    <t>Great beds, good breakfast, &amp; indoor pool is big hit with the family! Very convenient to getting downtown. I could do without graphic tv on Fox News while trying to eat breakfast with my young children however. Otherwise I like this hotel &amp; stay here often when in town.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r556897553-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>556897553</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIP OFF !! </t>
+  </si>
+  <si>
+    <t>I have traveled all across this country and NEVER have I ever been charged after leaving a hotel like this Holiday Inn.  We stayed here with the Charolais Association.  (Travelled 1200 miles to be here. ) So we received a nice discount from their original price apparently they needed to make up for it!    They called and told us they were charging us   50$ to clean the bed  that was a discount usually it is 250$    Apparently I should have taken pictures of the bed .  I didn’t complain about the elevator which needs checked , the sound is terrible.  I didn’t complain about the  slippery bath tub.  I didn’t complain you can hear everything going on in the rooms beside you.  Yes it was clean. Breakfast was okay    For the $$$. It was not that outstanding  I would rather have stayed in the country Inn   Or the quality Inn next door. This will be our last Holiday Inn stay MoreShow less</t>
+  </si>
+  <si>
+    <t>I have traveled all across this country and NEVER have I ever been charged after leaving a hotel like this Holiday Inn.  We stayed here with the Charolais Association.  (Travelled 1200 miles to be here. ) So we received a nice discount from their original price apparently they needed to make up for it!    They called and told us they were charging us   50$ to clean the bed  that was a discount usually it is 250$    Apparently I should have taken pictures of the bed .  I didn’t complain about the elevator which needs checked , the sound is terrible.  I didn’t complain about the  slippery bath tub.  I didn’t complain you can hear everything going on in the rooms beside you.  Yes it was clean. Breakfast was okay    For the $$$. It was not that outstanding  I would rather have stayed in the country Inn   Or the quality Inn next door. This will be our last Holiday Inn stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r549058673-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>549058673</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Attractive and quiet, but a slippery bathtub</t>
+  </si>
+  <si>
+    <t>Location: convenient to I 30 in both directions, but far enough away to be quiet.  Public and private areas are clean and attractive, and there is an indoor pool, but no hot tub.  The breakfast fare is the usual HI offering.  With the rest of the chain, this facility is serviced by a single elevator bank, which can slow down checking out dramatically if you have much luggage and are on an upper floor.  Make allowance for this if you are racing to the airport.  Also, be careful in the bathroom.  The tub in our suite was slippery in the extreme.  Staff acknowledges the problem, but appears to be waiting for corporate to approve the obvious upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Location: convenient to I 30 in both directions, but far enough away to be quiet.  Public and private areas are clean and attractive, and there is an indoor pool, but no hot tub.  The breakfast fare is the usual HI offering.  With the rest of the chain, this facility is serviced by a single elevator bank, which can slow down checking out dramatically if you have much luggage and are on an upper floor.  Make allowance for this if you are racing to the airport.  Also, be careful in the bathroom.  The tub in our suite was slippery in the extreme.  Staff acknowledges the problem, but appears to be waiting for corporate to approve the obvious upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r533631470-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>533631470</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>One of the newest and best places that I have stayed in Fort Worth so far. Hotel itself is basic, but very modern decor and nice and clean. Staff is very courteous. A tuck shop next to reception is very handy and so is the free coffee in lobby 24hrs. Gym is fine as well. Overall a very nice experience.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r522066500-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>522066500</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Just needed to get away!</t>
+  </si>
+  <si>
+    <t>We have had a very rough year and just needed to get away from it all!Were very glad we went to Holiday Inn Express, the staff was very friendly and nice. Every time we came through the lobby they would ask if we were enjoying our stay or if we needed anything! It just made or stay very enjoyable.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r518046860-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>518046860</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>simply excellent</t>
+  </si>
+  <si>
+    <t>Stayed here multiple nights - in excess of 40. I have nothing but positive reviews for the facility and staff. Well run and managed property. The only minor negative is parking due to constrictions of existing buildings around it but it is adequate, just plan to park around back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r515702945-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>515702945</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel west of downtown</t>
+  </si>
+  <si>
+    <t>Very nice, new property just off the interstate. Friendly staff and very comfortable &amp; modern rooms with amazing beds and no hallway noise! The bathroom was spotless also. The breakfast was fairly standard for a Holiday Inn Express. I would return if I need to be on this side of Fort Worth again! There is a nice, but small fitness room which was great because I didn't see many sidewalks near the property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r511739788-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>511739788</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was off the beaten path in my opinion. Not a whole lot in the area as far as food options/ entertainment goes. I really enjoyed my stay. The hotel overall seemed fairly brand new. Everything was extremely clean and my room was  nice and clean and spacious. This hotel is maybe 3 miles away from Lockheed Martin, so if you're in town for an interview it's an ideal location. All of the staff was super friendly and professional. If I'm in the area again I would definitely stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r507066845-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>507066845</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>5 Star Hotel in The Settlement</t>
+  </si>
+  <si>
+    <t>Who could've known? Worth every single cent and every bit of inconvenience. We made reservations at a Motel 6 by Six Flags. Checked in and was literally mortified by the conditions and price. (That review will be posted later.) This hotel exceeds expectations. Superb Service, Cleanliness, Amenities, Bedding... I will be staying here and sending friends and family here any time they are in Fort Worth. Thank you to all who work and run this Hotel! Bravo Zulu!!!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r501436334-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>9980665</t>
   </si>
   <si>
     <t>501436334</t>
@@ -190,12 +463,6 @@
 Of note:...Pros: Reserved online, including a request for a very quiet room and arrived to someone who had actually read that and had a room ready for us on the 4th floor (top) away from the elevator. And it was quiet!Black out shades did their job well.Beds were very comfortable (I like mine a touch on the soft side).Our room keys worked first time every time. Air conditioning was quite sufficient for the hot Texas summer.Looked like a new place - things were clean and fresh.Decent breakfast, with hot items and some variety for the two mornings we were there. Lots of outlets! Regular two-prong and 2 USB for each bed, plus more near the desk.Negatives:Coffee. They had both decaf and house blend. The house blend is a fairly weak brew. If they offered a bold option like some other places do, it would be wonderful.Oddly, room cleaning schedule. On our first morning we left about 9:30 to visit the zoo,  returned at 3:30, and our room had not been cleaned yet (the crew was in the room next to ours, so ours would have been finished about 4:00). At that point in time, it would have been an inconvenience, so we just asked for fresh towels.TV. Decent size and channel selection but it was really slow to respond to the remote and my husband said the sound was "tinny".Of note: The beds are tall. However there was a stool that would have helped, had I needed it because of my knees (my mom would).Someone mentioned a flight pattern from the base.We did hear a plane once about 9:30am. Wasn't a problem.For us, it was very comfortable and convenient and we would definitely stay again.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Pros: 
 Reserved online, including a request for a very quiet room and arrived to someone who had actually read that and had a room ready for us on the 4th floor (top) away from the elevator. And it was quiet!
 Black out shades did their job well.
@@ -212,9 +479,6 @@
 Of note:...Pros: Reserved online, including a request for a very quiet room and arrived to someone who had actually read that and had a room ready for us on the 4th floor (top) away from the elevator. And it was quiet!Black out shades did their job well.Beds were very comfortable (I like mine a touch on the soft side).Our room keys worked first time every time. Air conditioning was quite sufficient for the hot Texas summer.Looked like a new place - things were clean and fresh.Decent breakfast, with hot items and some variety for the two mornings we were there. Lots of outlets! Regular two-prong and 2 USB for each bed, plus more near the desk.Negatives:Coffee. They had both decaf and house blend. The house blend is a fairly weak brew. If they offered a bold option like some other places do, it would be wonderful.Oddly, room cleaning schedule. On our first morning we left about 9:30 to visit the zoo,  returned at 3:30, and our room had not been cleaned yet (the crew was in the room next to ours, so ours would have been finished about 4:00). At that point in time, it would have been an inconvenience, so we just asked for fresh towels.TV. Decent size and channel selection but it was really slow to respond to the remote and my husband said the sound was "tinny".Of note: The beds are tall. However there was a stool that would have helped, had I needed it because of my knees (my mom would).Someone mentioned a flight pattern from the base.We did hear a plane once about 9:30am. Wasn't a problem.For us, it was very comfortable and convenient and we would definitely stay again.More</t>
   </si>
   <si>
-    <t>PaulHenryOK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r485038079-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -233,15 +497,9 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Our room was dirty, the TV didn't work and the bed was so tall, we had to turn the trash can upside down for me to get into the bed.  The manager came to the room to try to fix the TV so we asked if if we could get a room with a 'lower' bed - his response was that all beds were the same 'new' heighth.  I have since found that lower beds are available.  We were able to move to another room which was clean and the TV worked; however, the bed was the same heighth.  Then, the walls were paper thin - heard noises from rooms on both sides of us all night.  It was the worst hotel night we've ever had!More</t>
   </si>
   <si>
-    <t>mandyjmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r481867387-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -263,9 +521,6 @@
     <t>One of the best hotel visits we've experienced.  Lovely hotel, beautiful decor from the lobby to the rooms, very clean. Extremely friendly, accommodating staff, everyone from the awesome front desk associate to the wonderful maintenance manager.  On our first night's stay, we encountered the black-out blinds to be missing from our room (understandably so, as they explained in that particular room the vertical blinds didn't fit the particular track for the black-out blinds to roll down)... once notified of the situation, the lady at the front desk immediately sent the maintenance manager up to switch rooms for us, the housekeeping crew was instantly there cleaning the new room and making everything right.  We were even given complementary drinks and UHH rewards points for the 'inconvienience'!  We were extremely impressed with the amount or professionalism and curtesy exhibited from this hotel!  We will definitely be staying here again if we are ever back in this area.  Thank you Holiday Inn Express West Fort Worth for making our trip a great one!More</t>
   </si>
   <si>
-    <t>LatteChic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r467429150-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -284,9 +539,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>mercynurse62</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r463363273-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -308,9 +560,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>DeepMD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r459705545-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -335,9 +584,6 @@
     <t>Stayed at this property as party of a wedding, received a very reasonable nightly rate through wedding along with free parking and free wifi. The front desk staff and housekeeping provided impeccable service, very helpful and polite.  Room was spotless, extremely clean. My main issue was with the size of the room and mainly the bathroom. The bathroom was EXTREMELY SMALL, only enough standing room for one person. Made getting ready a slower process since only one person could be in there at a time. But the showerhead was wonderful, high pressure water.  The tv was also on the smaller side and positioned diagonally from the bed, so watching tv wasn't ideal. Other than that, hotel was decent and reasonably priced.More</t>
   </si>
   <si>
-    <t>David V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r458392547-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -353,9 +599,6 @@
     <t>I use to stay at the La Quinta on Calmont until I was informed that pets were welcome in all rooms at the hotel.  I don't want to sleep in a bed where some animal has been sleeping so I started looking for another place.  I was lucky to find this Holiday Inn just a few blocks away.  It is a true gem!  New, clean and the staff members are true professionals. The price for my rooms are comparable to the La Quinta but much cleaner and newer.  I like this place!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Linda M, Director of Sales at Holiday Inn Express &amp; Suites Fort Worth West, responded to this reviewResponded February 13, 2017</t>
   </si>
   <si>
@@ -365,9 +608,6 @@
     <t>I use to stay at the La Quinta on Calmont until I was informed that pets were welcome in all rooms at the hotel.  I don't want to sleep in a bed where some animal has been sleeping so I started looking for another place.  I was lucky to find this Holiday Inn just a few blocks away.  It is a true gem!  New, clean and the staff members are true professionals. The price for my rooms are comparable to the La Quinta but much cleaner and newer.  I like this place!More</t>
   </si>
   <si>
-    <t>fperales2416</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r451536019-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -386,9 +626,6 @@
     <t>My cheerleaders had a great stay, great room very clean, Linda Martin was very helful on getting us room which fit our squad, loved the breakfast, staff was very friendly.. Just LOVE  it and the price was great..More</t>
   </si>
   <si>
-    <t>Stephen R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r446166926-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -410,9 +647,6 @@
     <t>We were walk in customers and this hotel were wonderful in the way they helped us. We were met by a young man and lady who gave us great service. Brad was a trainee and was brilliant. We needed to stay four nights and everyone moved people around even though they were heavily booked on that weekend. Dennis, the manager, was extremely helpful and pleasant.  The rooms were very good and spacious. Would recommend this hotel to anyone.More</t>
   </si>
   <si>
-    <t>Em S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r444252581-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -434,9 +668,6 @@
     <t>This was such a nice, friendly place. I slept so good cuz the beds were so comfy! The rooms are very inviting and have a homey feeling. They have a wonderful hot breakfast such as eggs, bacon, sausage, biscuit &amp; gravy, pancake machine and other cold foods like cereal and yogurt. My husband is allergic to dogs and cats. This place does not allow pets and I am very happy about that. I do not like sleeping in a room with pet urine smell and my husband sneezing all night. Most people with pets are very careless with their pets at someone else's place and I have seen it. So, if I'm gonna pay for a room, I don't want pet urine smell! This place was a very great place to stay. I hope they keep it that way! It is really hard to find a hotel who does not allow pets now days. I'm talking about pets and not a service dog! Big difference!More</t>
   </si>
   <si>
-    <t>Mlaine T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r438091926-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -461,9 +692,6 @@
     <t>This new Holiday Inn has some new concept rooms.  The whole design of the room is convenient and well thought out.  I especially like the area where several suit cases can be placed. I took a picture of the shower I would like to have that in my house.  The staff was very accommodating a special thank you to Chandler St. Clair and Linda.        Thank you, M'laineMore</t>
   </si>
   <si>
-    <t>Apple I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r437882511-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -482,9 +710,6 @@
     <t>Nice Clean rooms . Friendly and helpful stuff. Easy on and off I-30. Breakfast was good and in variety. Entire property is well maintained and cleaned. Perfect place to stay ! Will surely go back when I'm in town. More</t>
   </si>
   <si>
-    <t>Jorge G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r435995624-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,9 +735,6 @@
   </si>
   <si>
     <t>Eight months old, really nice place, great showers. Nice bed with large comfy pillows. Nice staff with a great rate. Ask and you can get anywhere from $85 to $99.The desk in the room is super roomy and easy to work out of. LED lighting is nice. The TV does not pivot, so that's a pain.More</t>
-  </si>
-  <si>
-    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r435035256-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -554,9 +776,6 @@
 Due to the loud noise, I will be seeking an alternative hotel for...This hotel is new.  It is in a convenient location off Interstate 30.The surrounding area wasn't very welcoming and there were very few parking spots in front of the building.  You had to mostly park on the side or the back of the building which had terraced parking.There is a liquor store right next door but there were no drunks hanging around.  See photo.  The view across the street is some electrical power station.  See photo.The hotel &amp; room were clean.  I really appreciated the new, modern furnishings.  See photos.This hotel had the best black out curtains I have ever seen!  See photo.  No light at all coming in!!The worst part of this hotel was how LOUD it is.  I had no idea it was very close to the adjacent Naval Air Station until I heard fighter JETS flying over head and making my whole room vibrate with noise!  Yes, there is a Naval Air Station Base right in Ft. Worth, Texas!The jets flew in the evening but not at night.  However, at night - it appeared that cars love to drag race in front of the hotel.  Revving engines all night long.I got very little sleep.Breakfast was good except for their extremely small, toddler sized cups they provide for juice.  One cup holds exactly 3 swallows of juice!Due to the loud noise, I will be seeking an alternative hotel for my next business trip to Ft. Worth.More</t>
   </si>
   <si>
-    <t>lilmizknowit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r429387387-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -578,7 +797,106 @@
     <t>We visited during a weekend getaway with our two kids and enjoyed.  There was some street construction going on , but no fault of the hotel.  Rooms were great, staff was great, and breakfast was great!!More</t>
   </si>
   <si>
-    <t>bigtrippin</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r396924491-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>396924491</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Room decor is modern. Comfortable. Suite small, only one room. Fridge in room. Standard Holiday Inn breakfast. Did not use pool. Quiet. A little disappointed with the size of the room. Suit our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andreas M, General Manager at Holiday Inn Express &amp; Suites Fort Worth West, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Room decor is modern. Comfortable. Suite small, only one room. Fridge in room. Standard Holiday Inn breakfast. Did not use pool. Quiet. A little disappointed with the size of the room. Suit our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r396687470-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>396687470</t>
+  </si>
+  <si>
+    <t>Can hear EVERYTHING, SHALLOW WALLS &amp; FLOORS - You'll be harassed by hotel reps</t>
+  </si>
+  <si>
+    <t>I will never stay hear ever again. Hotel is poorly constructed. Walls/floors are very shallow. You can hear anyone walking/running. Beds are super high so of course you're going to hear a thump when I get off the bed. Not a good place to go on a family vacation or to just relax. It's too loud. You'll end up receiving a few calls even in the midnight hours when you are asleep and then the front desk will hang up the call. My small children were taking a bath and I got a call saying they were stomping too loud. Excuse me, they are bathing. Catch the other kids who keep running the halls. Breakfast was bland. No hot sauce, ketchup, or cheese to sprinkle on eggs. The front desk rep stated everyone complains about the noise but that's how they are constructing these hotels now. Oh, ice machines are only on every other floor. Never again!!! Never will I stay at any Holiday Inn Express!!! What was supposed to be a get-a-way enjoyable weekend, became a weekend full of misery.MoreShow less</t>
+  </si>
+  <si>
+    <t>genet501, Manager at Holiday Inn Express &amp; Suites Fort Worth West, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>I will never stay hear ever again. Hotel is poorly constructed. Walls/floors are very shallow. You can hear anyone walking/running. Beds are super high so of course you're going to hear a thump when I get off the bed. Not a good place to go on a family vacation or to just relax. It's too loud. You'll end up receiving a few calls even in the midnight hours when you are asleep and then the front desk will hang up the call. My small children were taking a bath and I got a call saying they were stomping too loud. Excuse me, they are bathing. Catch the other kids who keep running the halls. Breakfast was bland. No hot sauce, ketchup, or cheese to sprinkle on eggs. The front desk rep stated everyone complains about the noise but that's how they are constructing these hotels now. Oh, ice machines are only on every other floor. Never again!!! Never will I stay at any Holiday Inn Express!!! What was supposed to be a get-a-way enjoyable weekend, became a weekend full of misery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r394417009-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>394417009</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Positive Attitude</t>
+  </si>
+  <si>
+    <t>The thing which strikes me about this particular location is the room and attitude.  The rooms are spacious and not cluttered which is nice, it's simple and very clean.  The best part about this location is the positive attitude every employee seems to have regardless of the interaction or discussion. Clearly the leadership and management is top notch as well as a high proficiency work force.  This will be my new home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The thing which strikes me about this particular location is the room and attitude.  The rooms are spacious and not cluttered which is nice, it's simple and very clean.  The best part about this location is the positive attitude every employee seems to have regardless of the interaction or discussion. Clearly the leadership and management is top notch as well as a high proficiency work force.  This will be my new home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r393896748-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>393896748</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel for those with allergies or MCS!</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now. Since hotel is new, it still is a healthy environment for those who need good air quality but it has gassed off enough for those chemically sensitive. There is a pool on the first floor, so I recommend floors 3 and 4.I brought my food and use the frig and microwave, which is perfect for those with food sensitivities.Great location, very close to I-30 and 820W. There is a mall close by if you need shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here twice now. Since hotel is new, it still is a healthy environment for those who need good air quality but it has gassed off enough for those chemically sensitive. There is a pool on the first floor, so I recommend floors 3 and 4.I brought my food and use the frig and microwave, which is perfect for those with food sensitivities.Great location, very close to I-30 and 820W. There is a mall close by if you need shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r392498127-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>392498127</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This is the nicest Holiday Inn Express I have ever stayed in.  This was presented as there new look and it was great.  The hotel was modern and clean.  The rooms were big and modern with the most comfortable beds.  We really enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is the nicest Holiday Inn Express I have ever stayed in.  This was presented as there new look and it was great.  The hotel was modern and clean.  The rooms were big and modern with the most comfortable beds.  We really enjoyed our stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r388220765-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
@@ -605,9 +923,6 @@
     <t>I would prefer to not leave a poor rating, because the room was mostly well kept, up-to-date, and comfortable, but we got in really late, specifically asked for a late check-out, asked the desk staff to put a note in the system so we weren't woken, and yet still received a call at the normal checkout time.  The woman at the front desk was entirely unapologetic and unprofessional when we informed her of this.So it's hard to be pleased with a stay when the staff ignored our one and only request.I said mostly well kept because despite the shower fixtures being fairly new, a corner was significantly rusted.Otherwise the room was clean and well kept, though my wife did complain about some smell that I felt was due to newer furnishings.More</t>
   </si>
   <si>
-    <t>GAWanderer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r381265386-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -623,124 +938,7 @@
     <t>Holiday Inn Express West is a new hotel which had been open for around 90 days at the time of our stay.  In planning, we decided to try this HIE location for that exact reason.  We were very pleased with our choice.  The new "Formula Blue Design" is well thought out and made it easy for us to have a place for luggage, a spot for each of us to set up our laptop and clean comfortable (new) sofa for watching the 42" TV.  The bed, bedding and linens were new and nice. The window covering was a pull down light blocking shade for nights and a see thru filter shade for days. That was the best new idea ever. We were traveling for vacation and stayed for three nights.  Parking was always available.  Breakfast was standard HIE but the area was clean and well kept.  Coffee was available even after breakfast hours. The front desk folks were professional and friendly.  The only minor problem that we had was that our door key card was only "keyed" for the first day.  When we complained, it was re-keyed to last our entire stay.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>Andreas M, General Manager at Holiday Inn Express &amp; Suites Fort Worth West, responded to this reviewResponded August 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 12, 2016</t>
-  </si>
-  <si>
     <t>Holiday Inn Express West is a new hotel which had been open for around 90 days at the time of our stay.  In planning, we decided to try this HIE location for that exact reason.  We were very pleased with our choice.  The new "Formula Blue Design" is well thought out and made it easy for us to have a place for luggage, a spot for each of us to set up our laptop and clean comfortable (new) sofa for watching the 42" TV.  The bed, bedding and linens were new and nice. The window covering was a pull down light blocking shade for nights and a see thru filter shade for days. That was the best new idea ever. We were traveling for vacation and stayed for three nights.  Parking was always available.  Breakfast was standard HIE but the area was clean and well kept.  Coffee was available even after breakfast hours. The front desk folks were professional and friendly.  The only minor problem that we had was that our door key card was only "keyed" for the first day.  When we complained, it was re-keyed to last our entire stay.More</t>
-  </si>
-  <si>
-    <t>Dimnbac33</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r566439026-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>566439026</t>
-  </si>
-  <si>
-    <t>03/14/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housekeeping lacking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel is modern up to date and clean. Housekeeping didn’t clean room. They did make up beds,did not replenish towels, no soap left and didn’t even clean used grounds from coffee pot. Other than that our vehicle was safe and beds sufficient. </t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>737openroad</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r562606991-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>562606991</t>
-  </si>
-  <si>
-    <t>02/24/2018</t>
-  </si>
-  <si>
-    <t>Comfy &amp; convenient!</t>
-  </si>
-  <si>
-    <t>Great beds, good breakfast, &amp; indoor pool is big hit with the family! Very convenient to getting downtown. I could do without graphic tv on Fox News while trying to eat breakfast with my young children however. Otherwise I like this hotel &amp; stay here often when in town.</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Kristy S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r556897553-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>556897553</t>
-  </si>
-  <si>
-    <t>01/28/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIP OFF !! </t>
-  </si>
-  <si>
-    <t>I have traveled all across this country and NEVER have I ever been charged after leaving a hotel like this Holiday Inn.  We stayed here with the Charolais Association.  (Travelled 1200 miles to be here. ) So we received a nice discount from their original price apparently they needed to make up for it!    They called and told us they were charging us   50$ to clean the bed  that was a discount usually it is 250$    Apparently I should have taken pictures of the bed .  I didn’t complain about the elevator which needs checked , the sound is terrible.  I didn’t complain about the  slippery bath tub.  I didn’t complain you can hear everything going on in the rooms beside you.  Yes it was clean. Breakfast was okay    For the $$$. It was not that outstanding  I would rather have stayed in the country Inn   Or the quality Inn next door. This will be our last Holiday Inn stay MoreShow less</t>
-  </si>
-  <si>
-    <t>I have traveled all across this country and NEVER have I ever been charged after leaving a hotel like this Holiday Inn.  We stayed here with the Charolais Association.  (Travelled 1200 miles to be here. ) So we received a nice discount from their original price apparently they needed to make up for it!    They called and told us they were charging us   50$ to clean the bed  that was a discount usually it is 250$    Apparently I should have taken pictures of the bed .  I didn’t complain about the elevator which needs checked , the sound is terrible.  I didn’t complain about the  slippery bath tub.  I didn’t complain you can hear everything going on in the rooms beside you.  Yes it was clean. Breakfast was okay    For the $$$. It was not that outstanding  I would rather have stayed in the country Inn   Or the quality Inn next door. This will be our last Holiday Inn stay More</t>
-  </si>
-  <si>
-    <t>jetsly</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r549058673-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>549058673</t>
-  </si>
-  <si>
-    <t>12/24/2017</t>
-  </si>
-  <si>
-    <t>Attractive and quiet, but a slippery bathtub</t>
-  </si>
-  <si>
-    <t>Location: convenient to I 30 in both directions, but far enough away to be quiet.  Public and private areas are clean and attractive, and there is an indoor pool, but no hot tub.  The breakfast fare is the usual HI offering.  With the rest of the chain, this facility is serviced by a single elevator bank, which can slow down checking out dramatically if you have much luggage and are on an upper floor.  Make allowance for this if you are racing to the airport.  Also, be careful in the bathroom.  The tub in our suite was slippery in the extreme.  Staff acknowledges the problem, but appears to be waiting for corporate to approve the obvious upgrade.MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>Location: convenient to I 30 in both directions, but far enough away to be quiet.  Public and private areas are clean and attractive, and there is an indoor pool, but no hot tub.  The breakfast fare is the usual HI offering.  With the rest of the chain, this facility is serviced by a single elevator bank, which can slow down checking out dramatically if you have much luggage and are on an upper floor.  Make allowance for this if you are racing to the airport.  Also, be careful in the bathroom.  The tub in our suite was slippery in the extreme.  Staff acknowledges the problem, but appears to be waiting for corporate to approve the obvious upgrade.More</t>
-  </si>
-  <si>
-    <t>NQ8286</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d9980665-r533631470-Holiday_Inn_Express_Suites_Fort_Worth_West-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>533631470</t>
-  </si>
-  <si>
-    <t>10/16/2017</t>
-  </si>
-  <si>
-    <t>Very Clean</t>
-  </si>
-  <si>
-    <t>One of the newest and best places that I have stayed in Fort Worth so far. Hotel itself is basic, but very modern decor and nice and clean. Staff is very courteous. A tuck shop next to reception is very handy and so is the free coffee in lobby 24hrs. Gym is fine as well. Overall a very nice experience.</t>
-  </si>
-  <si>
-    <t>August 2017</t>
   </si>
 </sst>
 </file>
@@ -1245,181 +1443,153 @@
       <c r="A2" t="n">
         <v>64672</v>
       </c>
-      <c r="B2" t="n">
-        <v>155714</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64672</v>
       </c>
-      <c r="B3" t="n">
-        <v>155715</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64672</v>
       </c>
-      <c r="B4" t="n">
-        <v>155716</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1433,54 +1603,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64672</v>
       </c>
-      <c r="B5" t="n">
-        <v>155717</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1491,66 +1657,64 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64672</v>
       </c>
-      <c r="B6" t="n">
-        <v>120337</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1561,272 +1725,226 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64672</v>
       </c>
-      <c r="B7" t="n">
-        <v>155718</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64672</v>
       </c>
-      <c r="B8" t="n">
-        <v>2948</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64672</v>
       </c>
-      <c r="B9" t="n">
-        <v>155719</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64672</v>
       </c>
-      <c r="B10" t="n">
-        <v>20801</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1834,126 +1952,116 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>104</v>
-      </c>
-      <c r="X10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64672</v>
       </c>
-      <c r="B11" t="n">
-        <v>84154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>104</v>
-      </c>
-      <c r="X11" t="s">
-        <v>105</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64672</v>
       </c>
-      <c r="B12" t="n">
-        <v>155720</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1964,62 +2072,50 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>136</v>
-      </c>
-      <c r="X12" t="s">
-        <v>137</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64672</v>
       </c>
-      <c r="B13" t="n">
-        <v>155721</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" t="s">
-        <v>103</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -2029,70 +2125,62 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
-      <c r="X13" t="s">
-        <v>137</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64672</v>
       </c>
-      <c r="B14" t="n">
-        <v>44451</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2100,337 +2188,293 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>153</v>
-      </c>
-      <c r="X14" t="s">
-        <v>154</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64672</v>
       </c>
-      <c r="B15" t="n">
-        <v>155722</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>153</v>
-      </c>
-      <c r="X15" t="s">
-        <v>154</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64672</v>
       </c>
-      <c r="B16" t="n">
-        <v>155723</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" t="s">
-        <v>154</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64672</v>
       </c>
-      <c r="B17" t="n">
-        <v>155724</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>178</v>
-      </c>
-      <c r="X17" t="s">
-        <v>179</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64672</v>
       </c>
-      <c r="B18" t="n">
-        <v>155725</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>188</v>
-      </c>
-      <c r="X18" t="s">
-        <v>189</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64672</v>
       </c>
-      <c r="B19" t="n">
-        <v>155726</v>
-      </c>
-      <c r="C19" t="s">
-        <v>191</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2444,54 +2488,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64672</v>
       </c>
-      <c r="B20" t="n">
-        <v>155727</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2505,119 +2545,121 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64672</v>
       </c>
-      <c r="B21" t="n">
-        <v>63591</v>
-      </c>
-      <c r="C21" t="s">
-        <v>205</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64672</v>
       </c>
-      <c r="B22" t="n">
-        <v>155728</v>
-      </c>
-      <c r="C22" t="s">
-        <v>212</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2626,64 +2668,64 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" t="s">
+        <v>178</v>
+      </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64672</v>
       </c>
-      <c r="B23" t="n">
-        <v>155729</v>
-      </c>
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
@@ -2693,10 +2735,979 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
       <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>185</v>
+      </c>
+      <c r="X25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>185</v>
+      </c>
+      <c r="X26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>213</v>
+      </c>
+      <c r="X27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
         <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>228</v>
+      </c>
+      <c r="X29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>228</v>
+      </c>
+      <c r="X30" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>228</v>
+      </c>
+      <c r="X31" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>257</v>
+      </c>
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>250</v>
+      </c>
+      <c r="X34" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>250</v>
+      </c>
+      <c r="X35" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X36" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64672</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>250</v>
+      </c>
+      <c r="X38" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
